--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erock\OneDrive\class SQL\ML project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erock\OneDrive\GitHub\CSC325_Cy_Young_Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519EAD5E-6EFD-4EFA-A0A9-AF22E62C15E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E202F-3903-447A-B0F7-E044DF241917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C1774B89-E7D0-418E-9797-2E79C997F9F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="420">
   <si>
     <t>Player</t>
   </si>
@@ -1806,7 +1806,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1823,7 +1823,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2206,8 +2205,8 @@
   <dimension ref="A1:AK719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK89" sqref="AK89"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ94" sqref="AJ94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2352,7 +2351,7 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>417</v>
       </c>
       <c r="AK1" s="1"/>
@@ -11923,7 +11922,7 @@
       <c r="AI88" s="3">
         <v>6.38</v>
       </c>
-      <c r="AJ88" s="8">
+      <c r="AJ88">
         <v>1</v>
       </c>
     </row>
@@ -12583,8 +12582,8 @@
       <c r="AI94" s="3">
         <v>3.52</v>
       </c>
-      <c r="AJ94" s="6" t="s">
-        <v>408</v>
+      <c r="AJ94" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:36">
